--- a/Stored Procedures/WebServices/اردیبهشت/Report_GMaz_GetUnstableFeeders/راهنمای وب سرویس‌ دریافت اطلاعات فیدر های ناپایدار14000221.xlsx
+++ b/Stored Procedures/WebServices/اردیبهشت/Report_GMaz_GetUnstableFeeders/راهنمای وب سرویس‌ دریافت اطلاعات فیدر های ناپایدار14000221.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\Stored Procedures\WebServices\اردیبهشت\Report_GMaz_GetUnstableFeeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF1E88A-FD24-4F31-84E4-108CE8C7B035}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A41E804-C66B-4308-9561-5E96B95601CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>int</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Json Array</t>
   </si>
   <si>
-    <t>لیست بارگیری ها که در قالب کلاس و دارای فیلدهای زیر می‌باشد</t>
-  </si>
-  <si>
     <t>تاریخ شروع گزارش</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>MinCount</t>
   </si>
   <si>
-    <t>string/int</t>
-  </si>
-  <si>
     <t>حداقل تعداد دفعات خاموشی در بازه زمانی مورد نظر</t>
   </si>
   <si>
@@ -146,19 +140,6 @@
   </si>
   <si>
     <t>دلایل قطع (که با "," از یکدیگر جدا می شوند)</t>
-  </si>
-  <si>
-    <t>{
- "FromDate" : "1398/02/11",
- "ToDate" : "1400/02/11",
- "MinCount" : "2"
-}
-یا
-{
- "FromDate" : "1398/02/11",
- "ToDate" : "1400/02/11",
- "MinCount" : 2
-}</t>
   </si>
   <si>
     <r>
@@ -207,6 +188,17 @@
         }
     ]
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+ "FromDate" : "1398/02/11",
+ "ToDate" : "1400/02/11",
+ "MinCount" : 2
+}</t>
+  </si>
+  <si>
+    <t>لیست فیدرهای ناپایدار که در قالب کلاس و دارای فیلدهای زیر می‌باشد</t>
   </si>
 </sst>
 </file>
@@ -629,6 +621,12 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,12 +697,6 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1119,8 +1111,8 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:D19"/>
+    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,32 +1123,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="29"/>
+      <c r="C3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1165,10 +1157,10 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -1185,12 +1177,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1200,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>5</v>
@@ -1214,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>5</v>
@@ -1222,25 +1214,25 @@
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1249,10 +1241,10 @@
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1261,10 +1253,10 @@
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -1274,97 +1266,97 @@
         <v>24</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D13" s="41"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="39"/>
+      <c r="C14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="39"/>
+      <c r="C15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="39"/>
+      <c r="C16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4" ht="372.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="39"/>
-    </row>
-    <row r="18" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:4" ht="372.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
